--- a/Jogos_do_Dia/2023-09-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -642,46 +642,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.08</v>
+        <v>1.75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="U2" t="n">
         <v>1.25</v>
@@ -705,34 +705,34 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AI2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Russia Russian Premier League</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -744,110 +744,110 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Fakel</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Rubin Kazan</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.13</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="I3" t="n">
-        <v>3.65</v>
+        <v>2.82</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="N3" t="n">
-        <v>1.97</v>
+        <v>2.19</v>
       </c>
       <c r="O3" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="R3" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AB3" t="n">
         <v>1.85</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.62</v>
       </c>
       <c r="AC3" t="n">
         <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Russia Russian Premier League</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -859,104 +859,104 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fakel</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rubin Kazan</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.48</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.64</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>2.97</v>
+        <v>3.69</v>
       </c>
       <c r="J4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K4" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>2.83</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="O4" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.61</v>
+        <v>2.89</v>
       </c>
       <c r="R4" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="U4" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="V4" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="AC4" t="n">
         <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.35</v>
+        <v>2.88</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AI4" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="5">
@@ -1008,10 +1008,10 @@
         <v>3.6</v>
       </c>
       <c r="N5" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="O5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>1.33</v>
@@ -1123,7 +1123,7 @@
         <v>3.8</v>
       </c>
       <c r="N6" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="O6" t="n">
         <v>2</v>
@@ -1238,10 +1238,10 @@
         <v>5.8</v>
       </c>
       <c r="N7" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="O7" t="n">
-        <v>2.95</v>
+        <v>2.32</v>
       </c>
       <c r="P7" t="n">
         <v>1.22</v>
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="J8" t="n">
         <v>1.02</v>
@@ -1356,7 +1356,7 @@
         <v>1.67</v>
       </c>
       <c r="O8" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="P8" t="n">
         <v>1.32</v>
@@ -1447,13 +1447,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
@@ -1468,10 +1468,10 @@
         <v>3.1</v>
       </c>
       <c r="N9" t="n">
-        <v>1.95</v>
+        <v>2.19</v>
       </c>
       <c r="O9" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="P9" t="n">
         <v>1.43</v>
@@ -1562,52 +1562,52 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.84</v>
+        <v>3.82</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="N10" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="O10" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="R10" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="T10" t="n">
         <v>1.23</v>
       </c>
       <c r="U10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="V10" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="W10" t="n">
         <v>1</v>
@@ -1652,7 +1652,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1664,104 +1664,104 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Ajax II</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="J11" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="K11" t="n">
+        <v>11</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC11" t="n">
         <v>7</v>
       </c>
-      <c r="L11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="AD11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AG11" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W11" t="n">
-        <v>3</v>
-      </c>
-      <c r="X11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>2.37</v>
-      </c>
       <c r="AH11" t="n">
-        <v>3.3</v>
+        <v>1.87</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="12">
@@ -1792,13 +1792,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.79</v>
+        <v>2.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.31</v>
+        <v>3.05</v>
       </c>
       <c r="I12" t="n">
-        <v>2.53</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
         <v>1.06</v>
@@ -1813,10 +1813,10 @@
         <v>3.2</v>
       </c>
       <c r="N12" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="O12" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P12" t="n">
         <v>1.42</v>
@@ -1882,7 +1882,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -1894,104 +1894,104 @@
         </is>
       </c>
       <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K13" t="n">
         <v>7</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Ajax II</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Eindhoven</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="L13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2.5</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K13" t="n">
-        <v>11</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3.4</v>
-      </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="T13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.55</v>
       </c>
-      <c r="U13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.45</v>
-      </c>
       <c r="W13" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="X13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.26</v>
+        <v>1.82</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.78</v>
+        <v>3.55</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.29</v>
+        <v>1.93</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.5</v>
+        <v>2.37</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.87</v>
+        <v>3.3</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.43</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="14">
@@ -2022,46 +2022,46 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="H14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.56</v>
+        <v>4.72</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O14" t="n">
-        <v>2.45</v>
+        <v>2.41</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="R14" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S14" t="n">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="T14" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="U14" t="n">
         <v>1.22</v>
@@ -2158,10 +2158,10 @@
         <v>3.72</v>
       </c>
       <c r="N15" t="n">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="O15" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="P15" t="n">
         <v>1.34</v>
@@ -2209,7 +2209,7 @@
         <v>3.1</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF15" t="n">
         <v>1.4</v>
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="H16" t="n">
-        <v>3.75</v>
+        <v>3.79</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>4.93</v>
       </c>
       <c r="J16" t="n">
         <v>1.02</v>
@@ -2273,10 +2273,10 @@
         <v>3.6</v>
       </c>
       <c r="N16" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O16" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="P16" t="n">
         <v>1.36</v>
@@ -2388,10 +2388,10 @@
         <v>2.8</v>
       </c>
       <c r="N17" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="O17" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="P17" t="n">
         <v>1.46</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H20" t="n">
-        <v>3.93</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>4.74</v>
+        <v>3.85</v>
       </c>
       <c r="J20" t="n">
         <v>1.04</v>
@@ -2733,10 +2733,10 @@
         <v>4.1</v>
       </c>
       <c r="N20" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O20" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="P20" t="n">
         <v>1.36</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I21" t="n">
-        <v>2.92</v>
+        <v>2.83</v>
       </c>
       <c r="J21" t="n">
         <v>1.11</v>
@@ -2842,16 +2842,16 @@
         <v>5.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="M21" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N21" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="O21" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
         <v>1.57</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="H22" t="n">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="I22" t="n">
-        <v>2.75</v>
+        <v>2.86</v>
       </c>
       <c r="J22" t="n">
         <v>1.1</v>
@@ -2957,16 +2957,16 @@
         <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M22" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="N22" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O22" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P22" t="n">
         <v>1.57</v>
@@ -3005,13 +3005,13 @@
         <v>2.72</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="J23" t="n">
         <v>1.01</v>
@@ -3172,13 +3172,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="H24" t="n">
-        <v>7.62</v>
+        <v>6.4</v>
       </c>
       <c r="I24" t="n">
-        <v>14.24</v>
+        <v>14</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -3193,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="O24" t="n">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -3278,106 +3278,106 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Colón</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>3.12</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K25" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="L25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.38</v>
       </c>
-      <c r="M25" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W25" t="n">
-        <v>2.13</v>
-      </c>
       <c r="X25" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.99</v>
+        <v>2.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.91</v>
+        <v>2.43</v>
       </c>
       <c r="AC25" t="n">
         <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.32</v>
+        <v>1.83</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AH25" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="AI25" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -3389,110 +3389,110 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Avaí</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2.63</v>
       </c>
-      <c r="H26" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="R26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.45</v>
       </c>
-      <c r="P26" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="W26" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AG26" t="n">
         <v>2.25</v>
       </c>
-      <c r="R26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AH26" t="n">
-        <v>1.93</v>
+        <v>3.1</v>
       </c>
       <c r="AI26" t="n">
-        <v>2.43</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -3504,104 +3504,104 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Colón</t>
+          <t>Avaí</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.12</v>
+        <v>2.55</v>
       </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="I27" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="K27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AC27" t="n">
         <v>8.5</v>
       </c>
-      <c r="L27" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U27" t="n">
+      <c r="AD27" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AE27" t="n">
         <v>1.25</v>
       </c>
-      <c r="V27" t="n">
+      <c r="AF27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AG27" t="n">
         <v>1.5</v>
       </c>
-      <c r="W27" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AB27" t="n">
+      <c r="AH27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI27" t="n">
         <v>2.43</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>4.1</v>
       </c>
     </row>
     <row r="28">
@@ -3641,28 +3641,28 @@
         <v>2.8</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O28" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R28" t="n">
         <v>1.8</v>
@@ -3671,13 +3671,13 @@
         <v>1.95</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W28" t="n">
         <v>1.08</v>
@@ -3704,25 +3704,25 @@
         <v>2.14</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AG28" t="n">
         <v>1.83</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -3734,104 +3734,104 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Atlético Tucumán</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Arsenal de Sarandí</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.65</v>
+        <v>1.38</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>4.32</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>8.76</v>
       </c>
       <c r="J29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T29" t="n">
         <v>1.06</v>
       </c>
-      <c r="K29" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.15</v>
-      </c>
       <c r="U29" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="V29" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="W29" t="n">
-        <v>1.73</v>
+        <v>2.07</v>
       </c>
       <c r="X29" t="n">
-        <v>0.35</v>
+        <v>0.57</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.41</v>
+        <v>1.94</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.54</v>
+        <v>2.96</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
       <c r="AC29" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.92</v>
+        <v>5.13</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.55</v>
+        <v>1.28</v>
       </c>
       <c r="AG29" t="n">
-        <v>1.96</v>
+        <v>1.52</v>
       </c>
       <c r="AH29" t="n">
-        <v>2.55</v>
+        <v>1.88</v>
       </c>
       <c r="AI29" t="n">
-        <v>3.8</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="30">
@@ -3853,40 +3853,40 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Talleres Córdoba</t>
+          <t>Atlético Tucumán</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Arsenal de Sarandí</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="H30" t="n">
-        <v>4.02</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>6.57</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K30" t="n">
-        <v>9.130000000000001</v>
+        <v>8.27</v>
       </c>
       <c r="L30" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M30" t="n">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="N30" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O30" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P30" t="n">
         <v>1.44</v>
@@ -3895,64 +3895,64 @@
         <v>2.63</v>
       </c>
       <c r="R30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V30" t="n">
         <v>2.2</v>
       </c>
-      <c r="S30" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2.55</v>
-      </c>
       <c r="W30" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="X30" t="n">
-        <v>0.88</v>
+        <v>0.35</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AA30" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="AB30" t="n">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="AC30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="n">
-        <v>4.09</v>
+        <v>2.92</v>
       </c>
       <c r="AE30" t="n">
         <v>1.3</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="AH30" t="n">
-        <v>2.41</v>
+        <v>2.55</v>
       </c>
       <c r="AI30" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -3964,104 +3964,104 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Talleres Córdoba</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="H31" t="n">
-        <v>4.32</v>
+        <v>4.02</v>
       </c>
       <c r="I31" t="n">
-        <v>8.76</v>
+        <v>6.57</v>
       </c>
       <c r="J31" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K31" t="n">
-        <v>8.5</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="L31" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M31" t="n">
-        <v>2.85</v>
+        <v>3.08</v>
       </c>
       <c r="N31" t="n">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="P31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF31" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="V31" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W31" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>1.28</v>
-      </c>
       <c r="AG31" t="n">
-        <v>1.52</v>
+        <v>1.87</v>
       </c>
       <c r="AH31" t="n">
-        <v>1.88</v>
+        <v>2.41</v>
       </c>
       <c r="AI31" t="n">
-        <v>2.39</v>
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-09-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI31"/>
+  <dimension ref="A1:AI32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,7 +617,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>USA MLS</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -625,114 +625,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>01:25:00</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>LA Galaxy</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>1.75</v>
+        <v>3.05</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P2" t="n">
         <v>1.29</v>
       </c>
-      <c r="M2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.39</v>
-      </c>
       <c r="Q2" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.91</v>
+        <v>1.3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.87</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.3</v>
+        <v>1.63</v>
       </c>
       <c r="AC2" t="n">
         <v>7.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.5</v>
+        <v>2.65</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="AI2" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Russia Russian Premier League</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -740,114 +740,114 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K3" t="n">
         <v>9</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Fakel</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Rubin Kazan</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7.8</v>
-      </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
-        <v>2.83</v>
+        <v>3.4</v>
       </c>
       <c r="N3" t="n">
-        <v>2.19</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="P3" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.61</v>
+        <v>3.05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
-        <v>1.37</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.59</v>
+        <v>1.19</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.33</v>
+        <v>3</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="AC3" t="n">
         <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.35</v>
+        <v>1.45</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AI3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Russia Russian Premier League</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -859,110 +859,110 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Fakel</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Rubin Kazan</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>2.48</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.64</v>
       </c>
       <c r="I4" t="n">
-        <v>3.69</v>
+        <v>2.97</v>
       </c>
       <c r="J4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.33</v>
       </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.29</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="AC4" t="n">
         <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sweden Allsvenskan</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -970,114 +970,114 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.79</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.97</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1.72</v>
+        <v>5.25</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="P5" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.25</v>
+        <v>2.89</v>
       </c>
       <c r="R5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.7</v>
       </c>
-      <c r="S5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.22</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.9</v>
+        <v>1.48</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.58</v>
+        <v>3.4</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AH5" t="n">
         <v>2.1</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sweden Allsvenskan</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1089,110 +1089,110 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Värnamo</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Čukarički</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.29</v>
+        <v>3.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3.77</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.02</v>
+        <v>1.95</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N6" t="n">
-        <v>1.86</v>
+        <v>2.3</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T6" t="n">
+      <c r="Y6" t="n">
         <v>1.41</v>
       </c>
-      <c r="U6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.3</v>
-      </c>
       <c r="Z6" t="n">
-        <v>1.33</v>
+        <v>1.76</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.63</v>
+        <v>3.17</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1204,110 +1204,110 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nordsjælland</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Hvidovre</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.21</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>6.57</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>10.14</v>
+        <v>2.1</v>
       </c>
       <c r="J7" t="n">
         <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="M7" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="N7" t="n">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="O7" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>3.22</v>
       </c>
       <c r="R7" t="n">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="S7" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="U7" t="n">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="V7" t="n">
-        <v>4.5</v>
+        <v>1.36</v>
       </c>
       <c r="W7" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.62</v>
+        <v>1.26</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.58</v>
+        <v>2.19</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.26</v>
+        <v>2.48</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>4.86</v>
+        <v>1.74</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.95</v>
+        <v>2.14</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.45</v>
+        <v>2.84</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1319,110 +1319,110 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Nordsjælland</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Hvidovre</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.35</v>
+        <v>1.18</v>
       </c>
       <c r="H8" t="n">
-        <v>3.65</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.98</v>
+        <v>15</v>
       </c>
       <c r="J8" t="n">
         <v>1.02</v>
       </c>
       <c r="K8" t="n">
+        <v>23</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="V8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AC8" t="n">
         <v>10</v>
       </c>
-      <c r="L8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="AD8" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF8" t="n">
         <v>1.5</v>
       </c>
-      <c r="Y8" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1.66</v>
-      </c>
       <c r="AG8" t="n">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="AH8" t="n">
-        <v>2.84</v>
+        <v>2.45</v>
       </c>
       <c r="AI8" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Sweden Allsvenskan</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1434,110 +1434,110 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Värnamo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Čukarički</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K9" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P9" t="n">
         <v>1.33</v>
       </c>
-      <c r="M9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.43</v>
-      </c>
       <c r="Q9" t="n">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="U9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Y9" t="n">
         <v>1.3</v>
       </c>
-      <c r="W9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>1.33</v>
       </c>
-      <c r="Y9" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1.76</v>
-      </c>
       <c r="AA9" t="n">
-        <v>3.17</v>
+        <v>2.63</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Switzerland Challenge League</t>
+          <t>Sweden Allsvenskan</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1545,114 +1545,114 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.8</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.82</v>
-      </c>
       <c r="J10" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K10" t="n">
         <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="N10" t="n">
-        <v>1.58</v>
+        <v>1.78</v>
       </c>
       <c r="O10" t="n">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="P10" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.28</v>
+        <v>3.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.23</v>
+        <v>2.08</v>
       </c>
       <c r="U10" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="V10" t="n">
-        <v>1.85</v>
+        <v>1.22</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="X10" t="n">
         <v>2</v>
       </c>
       <c r="Y10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z10" t="n">
         <v>1.66</v>
       </c>
-      <c r="Z10" t="n">
-        <v>2.11</v>
-      </c>
       <c r="AA10" t="n">
-        <v>3.77</v>
+        <v>2.84</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Switzerland Challenge League</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1660,108 +1660,108 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ajax II</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.38</v>
+        <v>2.9</v>
       </c>
       <c r="J11" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M11" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="N11" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="O11" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="P11" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.4</v>
+        <v>3.28</v>
       </c>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S11" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="T11" t="n">
-        <v>1.55</v>
+        <v>1.23</v>
       </c>
       <c r="U11" t="n">
         <v>1.25</v>
       </c>
       <c r="V11" t="n">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="W11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
         <v>2</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.26</v>
+        <v>2.11</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.78</v>
+        <v>3.77</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.15</v>
+        <v>2.63</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1792,13 +1792,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H12" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J12" t="n">
         <v>1.06</v>
@@ -1813,10 +1813,10 @@
         <v>3.2</v>
       </c>
       <c r="N12" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="P12" t="n">
         <v>1.42</v>
@@ -1882,7 +1882,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -1894,110 +1894,110 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Ajax II</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="J13" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="K13" t="n">
+        <v>11</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC13" t="n">
         <v>7</v>
       </c>
-      <c r="L13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="AD13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI13" t="n">
         <v>2.43</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W13" t="n">
-        <v>3</v>
-      </c>
-      <c r="X13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>4.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Switzerland Challenge League</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2005,114 +2005,114 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.58</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>4.72</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K14" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.12</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.5</v>
       </c>
-      <c r="O14" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.25</v>
-      </c>
       <c r="Q14" t="n">
-        <v>3.72</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.55</v>
       </c>
-      <c r="S14" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.05</v>
-      </c>
       <c r="W14" t="n">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="AA14" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>Switzerland Challenge League</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -2120,108 +2120,108 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:15:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>St Patrick's Athl.</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Drogheda United</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>1.65</v>
       </c>
       <c r="H15" t="n">
-        <v>4.17</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="L15" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q15" t="n">
         <v>3.72</v>
       </c>
-      <c r="N15" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3.1</v>
-      </c>
       <c r="R15" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T15" t="n">
         <v>1.18</v>
       </c>
       <c r="U15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V15" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="W15" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="X15" t="n">
         <v>2</v>
       </c>
-      <c r="X15" t="n">
-        <v>1.14</v>
-      </c>
       <c r="Y15" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.21</v>
+        <v>1.56</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AE15" t="n">
         <v>1.19</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="AH15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="16">
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="H16" t="n">
-        <v>3.79</v>
+        <v>3.65</v>
       </c>
       <c r="I16" t="n">
-        <v>4.93</v>
+        <v>4.75</v>
       </c>
       <c r="J16" t="n">
         <v>1.02</v>
@@ -2273,10 +2273,10 @@
         <v>3.6</v>
       </c>
       <c r="N16" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P16" t="n">
         <v>1.36</v>
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.21</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>4.18</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
         <v>1.09</v>
@@ -2388,10 +2388,10 @@
         <v>2.8</v>
       </c>
       <c r="N17" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="P17" t="n">
         <v>1.46</v>
@@ -2457,7 +2457,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2465,108 +2465,108 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>St Patrick's Athl.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Unión Santa Fe</t>
+          <t>Drogheda United</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.7</v>
+        <v>1.62</v>
       </c>
       <c r="H18" t="n">
-        <v>2.88</v>
+        <v>3.85</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>7.77</v>
+        <v>10.25</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="M18" t="n">
-        <v>2.79</v>
+        <v>3.72</v>
       </c>
       <c r="N18" t="n">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Y18" t="n">
         <v>1.53</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R18" t="n">
+      <c r="Z18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH18" t="n">
         <v>2</v>
       </c>
-      <c r="S18" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>2.95</v>
-      </c>
       <c r="AI18" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19">
@@ -2588,40 +2588,40 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sarmiento</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Unión Santa Fe</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.13</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
-        <v>3.09</v>
+        <v>2.88</v>
       </c>
       <c r="I19" t="n">
-        <v>3.67</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K19" t="n">
-        <v>7.15</v>
+        <v>7.77</v>
       </c>
       <c r="L19" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="M19" t="n">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="N19" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P19" t="n">
         <v>1.53</v>
@@ -2630,64 +2630,64 @@
         <v>2.38</v>
       </c>
       <c r="R19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T19" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="U19" t="n">
         <v>1.3</v>
       </c>
       <c r="V19" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="W19" t="n">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="X19" t="n">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="AH19" t="n">
-        <v>2.25</v>
+        <v>2.95</v>
       </c>
       <c r="AI19" t="n">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -2699,110 +2699,110 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Coventry City</t>
+          <t>Sarmiento</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Huddersfield Town</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.74</v>
+        <v>2.13</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.09</v>
       </c>
       <c r="I20" t="n">
-        <v>3.85</v>
+        <v>3.67</v>
       </c>
       <c r="J20" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>13</v>
+        <v>7.15</v>
       </c>
       <c r="L20" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="n">
-        <v>4.1</v>
+        <v>2.59</v>
       </c>
       <c r="N20" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="R20" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="T20" t="n">
         <v>1.22</v>
       </c>
       <c r="U20" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="V20" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="W20" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="X20" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.94</v>
+        <v>2.56</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.49</v>
+        <v>1.75</v>
       </c>
       <c r="AH20" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -2814,104 +2814,104 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Racing Club de Ferrol</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Real Zaragoza</t>
+          <t>Huddersfield Town</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.78</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>2.83</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="K21" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="M21" t="n">
-        <v>2.45</v>
+        <v>4.1</v>
       </c>
       <c r="N21" t="n">
-        <v>2.65</v>
+        <v>1.83</v>
       </c>
       <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
         <v>1.36</v>
       </c>
-      <c r="P21" t="n">
-        <v>1.57</v>
-      </c>
       <c r="Q21" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="U21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X21" t="n">
         <v>1.33</v>
       </c>
-      <c r="V21" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W21" t="n">
+      <c r="Y21" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AH21" t="n">
         <v>2</v>
       </c>
-      <c r="X21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>2.5</v>
-      </c>
       <c r="AI21" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="22">
@@ -2933,40 +2933,40 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CD Tenerife</t>
+          <t>Racing Club de Ferrol</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>RCD Espanyol</t>
+          <t>Real Zaragoza</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="H22" t="n">
-        <v>2.83</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="J22" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M22" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="N22" t="n">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="P22" t="n">
         <v>1.57</v>
@@ -2975,64 +2975,64 @@
         <v>2.25</v>
       </c>
       <c r="R22" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S22" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T22" t="n">
         <v>1.42</v>
       </c>
       <c r="U22" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V22" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="W22" t="n">
         <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="Y22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z22" t="n">
         <v>1.13</v>
       </c>
-      <c r="Z22" t="n">
-        <v>1.59</v>
-      </c>
       <c r="AA22" t="n">
-        <v>2.72</v>
+        <v>3.04</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AC22" t="n">
         <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>2.15</v>
+        <v>2.44</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="AH22" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Iceland Úrvalsdeild</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -3040,108 +3040,108 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D23" t="n">
+        <v>7</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>CD Tenerife</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>7</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W23" t="n">
         <v>2</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Breidablik</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Víkingur Reykjavík</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
+      <c r="X23" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH23" t="n">
         <v>2.55</v>
       </c>
-      <c r="H23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X23" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1.66</v>
-      </c>
       <c r="AI23" t="n">
-        <v>2.04</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="24">
@@ -3172,13 +3172,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="H24" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I24" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -3193,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="O24" t="n">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Iceland Úrvalsdeild</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -3270,108 +3270,108 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Colón</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Víkingur Reykjavík</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="K25" t="n">
-        <v>8.5</v>
+        <v>16.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="M25" t="n">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
       <c r="N25" t="n">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="P25" t="n">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.75</v>
+        <v>3.92</v>
       </c>
       <c r="R25" t="n">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="S25" t="n">
-        <v>2.1</v>
+        <v>2.77</v>
       </c>
       <c r="T25" t="n">
-        <v>1.45</v>
+        <v>1.76</v>
       </c>
       <c r="U25" t="n">
         <v>1.25</v>
       </c>
       <c r="V25" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="W25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AG25" t="n">
         <v>1.38</v>
       </c>
-      <c r="X25" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AF25" t="n">
+      <c r="AH25" t="n">
         <v>1.66</v>
       </c>
-      <c r="AG25" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>2.88</v>
-      </c>
       <c r="AI25" t="n">
-        <v>4.1</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="26">
@@ -3393,106 +3393,106 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Colón</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.7</v>
+        <v>3.12</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="J26" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K26" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="L26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W26" t="n">
         <v>1.38</v>
       </c>
-      <c r="M26" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W26" t="n">
-        <v>2.13</v>
-      </c>
       <c r="X26" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AA26" t="n">
-        <v>2.99</v>
+        <v>2.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.91</v>
+        <v>2.43</v>
       </c>
       <c r="AC26" t="n">
         <v>7</v>
       </c>
       <c r="AD26" t="n">
-        <v>2.32</v>
+        <v>1.83</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="AG26" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AH26" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="AI26" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -3504,110 +3504,110 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Avaí</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I27" t="n">
         <v>2.8</v>
       </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
       <c r="J27" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K27" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="M27" t="n">
-        <v>2.35</v>
+        <v>2.95</v>
       </c>
       <c r="N27" t="n">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.45</v>
       </c>
-      <c r="P27" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="W27" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AG27" t="n">
         <v>2.25</v>
       </c>
-      <c r="R27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AH27" t="n">
-        <v>1.93</v>
+        <v>3.1</v>
       </c>
       <c r="AI27" t="n">
-        <v>2.43</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -3615,114 +3615,114 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>América Mineiro</t>
+          <t>Avaí</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="H28" t="n">
-        <v>3.34</v>
+        <v>2.88</v>
       </c>
       <c r="I28" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J28" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="K28" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="M28" t="n">
-        <v>3.22</v>
+        <v>2.38</v>
       </c>
       <c r="N28" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q28" t="n">
         <v>2.25</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.63</v>
-      </c>
       <c r="R28" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="T28" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="U28" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="V28" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AG28" t="n">
         <v>1.5</v>
       </c>
-      <c r="W28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AB28" t="n">
+      <c r="AH28" t="n">
         <v>1.93</v>
       </c>
-      <c r="AC28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>2.12</v>
-      </c>
       <c r="AI28" t="n">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -3730,108 +3730,108 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>América Mineiro</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.38</v>
+        <v>2.6</v>
       </c>
       <c r="H29" t="n">
-        <v>4.32</v>
+        <v>3.25</v>
       </c>
       <c r="I29" t="n">
-        <v>8.76</v>
+        <v>2.7</v>
       </c>
       <c r="J29" t="n">
         <v>1.07</v>
       </c>
       <c r="K29" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L29" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M29" t="n">
-        <v>2.85</v>
+        <v>3.22</v>
       </c>
       <c r="N29" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="P29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V29" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="V29" t="n">
-        <v>3.1</v>
-      </c>
       <c r="W29" t="n">
-        <v>2.07</v>
+        <v>1.08</v>
       </c>
       <c r="X29" t="n">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.94</v>
+        <v>1.66</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="AA29" t="n">
         <v>2.96</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.24</v>
+        <v>1.88</v>
       </c>
       <c r="AC29" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>5.13</v>
+        <v>2.18</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="AG29" t="n">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="AH29" t="n">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="AI29" t="n">
-        <v>2.39</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="30">
@@ -3952,7 +3952,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -3964,103 +3964,218 @@
         </is>
       </c>
       <c r="D31" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
         <v>6</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Talleres Córdoba</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Barracas Central</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G32" t="n">
         <v>1.49</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H32" t="n">
         <v>4.02</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I32" t="n">
         <v>6.57</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J32" t="n">
         <v>1.05</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K32" t="n">
         <v>9.130000000000001</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L32" t="n">
         <v>1.35</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M32" t="n">
         <v>3.08</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N32" t="n">
         <v>2.1</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O32" t="n">
         <v>1.7</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P32" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q32" t="n">
         <v>2.63</v>
       </c>
-      <c r="R31" t="n">
+      <c r="R32" t="n">
         <v>2.2</v>
       </c>
-      <c r="S31" t="n">
+      <c r="S32" t="n">
         <v>1.62</v>
       </c>
-      <c r="T31" t="n">
+      <c r="T32" t="n">
         <v>1.1</v>
       </c>
-      <c r="U31" t="n">
+      <c r="U32" t="n">
         <v>1.2</v>
       </c>
-      <c r="V31" t="n">
+      <c r="V32" t="n">
         <v>2.55</v>
       </c>
-      <c r="W31" t="n">
+      <c r="W32" t="n">
         <v>1.81</v>
       </c>
-      <c r="X31" t="n">
+      <c r="X32" t="n">
         <v>0.88</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="Y32" t="n">
         <v>1.52</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="Z32" t="n">
         <v>1.1</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AA32" t="n">
         <v>2.62</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AB32" t="n">
         <v>1.34</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AC32" t="n">
         <v>9</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AD32" t="n">
         <v>4.09</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AE32" t="n">
         <v>1.3</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AF32" t="n">
         <v>1.5</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AG32" t="n">
         <v>1.87</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AH32" t="n">
         <v>2.41</v>
       </c>
-      <c r="AI31" t="n">
+      <c r="AI32" t="n">
         <v>2.9</v>
       </c>
     </row>
